--- a/dev_site/content/新手指南/files/状态表.xlsx
+++ b/dev_site/content/新手指南/files/状态表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12600"/>
+    <workbookView windowWidth="13665" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>状态</t>
   </si>
@@ -97,27 +97,33 @@
     <t>未能决策</t>
   </si>
   <si>
+    <t>玩家碰、弃、超时</t>
+  </si>
+  <si>
+    <t>决策碰</t>
+  </si>
+  <si>
+    <t>碰</t>
+  </si>
+  <si>
+    <t>执行碰操作</t>
+  </si>
+  <si>
+    <t>玩家杠、弃、超时</t>
+  </si>
+  <si>
+    <t>决策杠</t>
+  </si>
+  <si>
+    <t>杠</t>
+  </si>
+  <si>
+    <t>执行杠操作</t>
+  </si>
+  <si>
     <t>玩家碰、杠、胡、弃、超时</t>
   </si>
   <si>
-    <t>决策碰</t>
-  </si>
-  <si>
-    <t>碰</t>
-  </si>
-  <si>
-    <t>执行碰操作</t>
-  </si>
-  <si>
-    <t>决策杠</t>
-  </si>
-  <si>
-    <t>杠</t>
-  </si>
-  <si>
-    <t>执行杠操作</t>
-  </si>
-  <si>
     <t>决策胡</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>执行胡操作</t>
   </si>
   <si>
+    <t>玩家弃、超时</t>
+  </si>
+  <si>
     <t>决策无动作</t>
   </si>
   <si>
@@ -187,7 +196,7 @@
     <t>等待抢杠胡</t>
   </si>
   <si>
-    <t>玩家抢杠胡</t>
+    <t>玩家抢杠胡, 玩家放弃抢杠胡</t>
   </si>
   <si>
     <t>抢杠胡</t>
@@ -200,9 +209,6 @@
   </si>
   <si>
     <t>完成且没有其他人抢杠胡</t>
-  </si>
-  <si>
-    <t>完成且有其他人抢杠胡</t>
   </si>
 </sst>
 </file>
@@ -210,12 +216,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,13 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -253,14 +252,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,17 +282,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,67 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -367,6 +345,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -374,6 +366,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,13 +389,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,133 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,31 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,21 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,16 +632,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,161 +665,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1156,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1172,19 +1168,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1345,7 +1341,7 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
@@ -1358,77 +1354,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="1" spans="1:5">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:5">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1445,7 +1441,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1465,7 +1461,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1474,12 +1470,12 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1496,7 +1492,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1519,13 +1515,13 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1536,13 +1532,13 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1550,16 +1546,16 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1567,16 +1563,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1584,7 +1580,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1593,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1601,16 +1597,16 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1618,13 +1614,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1632,7 +1628,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1649,16 +1645,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1666,33 +1662,33 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1700,49 +1696,18 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" t="s">
         <v>7</v>
       </c>
     </row>

--- a/dev_site/content/新手指南/files/状态表.xlsx
+++ b/dev_site/content/新手指南/files/状态表.xlsx
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="4"/>
